--- a/SeleniumPractice/ExcelData/Data.xlsx
+++ b/SeleniumPractice/ExcelData/Data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leratopeterkhambulo/eclipse-workspace/SeleniumPractice/ExcelData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter Khambule\Documents\SeleniumFrameWork\SeleniumPractice\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4FB366-303A-E74C-A3E7-0D01B0B77C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5746385F-B88C-419E-83D3-2D439C685496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{CB3D9B0D-DE41-AB44-B667-6D1B117C7DAF}"/>
+    <workbookView xWindow="4920" yWindow="90" windowWidth="15375" windowHeight="8325" xr2:uid="{CB3D9B0D-DE41-AB44-B667-6D1B117C7DAF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Information" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>UserName</t>
   </si>
@@ -46,17 +44,37 @@
     <t>lavas171</t>
   </si>
   <si>
-    <t>mpho121</t>
+    <t>Kh@Mbul3</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Create Account</t>
+  </si>
+  <si>
+    <t>topefiy668@keshitv.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -79,14 +97,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,43 +424,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352CA335-BBCB-2648-B5DC-AB92739316A8}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>12345</v>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>246810</v>
-      </c>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="C4" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{1119FA12-0FDD-42E1-9B0D-55DEE9D8805E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>